--- a/Mod_Korean/Lang/KR/Data/god_talk.xlsx
+++ b/Mod_Korean/Lang/KR/Data/god_talk.xlsx
@@ -273,7 +273,7 @@
     <t xml:space="preserve">Bad bad puppy. I need to punish you.</t>
   </si>
   <si>
-    <t xml:space="preserve">You shall pay a painful price for your foolish try.</t>
+    <t xml:space="preserve">You shall pay a painful price for your foolish attempt.</t>
   </si>
   <si>
     <t xml:space="preserve">Stupid stupid! Stupid!</t>
@@ -1592,9 +1592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1342080</xdr:colOff>
+      <xdr:colOff>1341720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1604,7 +1604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1342080" cy="154800"/>
+          <a:ext cx="1341720" cy="154440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1637,9 +1637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1342080</xdr:colOff>
+      <xdr:colOff>1341720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1649,7 +1649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1342080" cy="155520"/>
+          <a:ext cx="1341720" cy="155160"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -1679,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1173600</xdr:colOff>
+      <xdr:colOff>1173240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1691,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1173600" cy="359280"/>
+          <a:ext cx="1173240" cy="358920"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -1833,7 +1833,7 @@
       <selection activeCell="O20" sqref="O20"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>

--- a/Mod_Korean/Lang/KR/Data/god_talk.xlsx
+++ b/Mod_Korean/Lang/KR/Data/god_talk.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="377">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -810,6 +810,9 @@
     <t xml:space="preserve">새로운 신도? 호기심이 많은가 봐.</t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">대단한 공물이군.
 받아 두지.
 나쁘지 않은데, 칭찬이다.
@@ -1327,9 +1330,6 @@
   <si>
     <t xml:space="preserve">너라면 이걸 잘 다룰 수 있겠지?
 네가 이걸 어떻게 활용할지, 기대할게.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">자, 바람이 되어라!
@@ -1849,7 +1849,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
       <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
@@ -1980,31 +1980,34 @@
       <c r="N3" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="O3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="57.45">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>22</v>
@@ -2016,13 +2019,16 @@
         <v>212</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="O4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="23.85">
@@ -2030,25 +2036,25 @@
         <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>22</v>
@@ -2060,13 +2066,16 @@
         <v>212</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="O5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="23.85">
@@ -2074,25 +2083,25 @@
         <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>22</v>
@@ -2104,13 +2113,16 @@
         <v>212</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="O6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="23.85">
@@ -2118,25 +2130,25 @@
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>22</v>
@@ -2148,13 +2160,16 @@
         <v>212</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="O7" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="23.85">
@@ -2162,25 +2177,25 @@
         <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>22</v>
@@ -2192,13 +2207,16 @@
         <v>212</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="O8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="23.85">
@@ -2206,25 +2224,25 @@
         <v>82</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>22</v>
@@ -2236,13 +2254,16 @@
         <v>212</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="O9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="23.85">
@@ -2250,25 +2271,25 @@
         <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>22</v>
@@ -2280,13 +2301,16 @@
         <v>212</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="O10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23.85">
@@ -2294,25 +2318,25 @@
         <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>22</v>
@@ -2324,13 +2348,16 @@
         <v>212</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="O11" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="35.05">
@@ -2338,25 +2365,25 @@
         <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>22</v>
@@ -2368,13 +2395,16 @@
         <v>212</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="O12" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="57.45">
@@ -2382,25 +2412,25 @@
         <v>126</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>22</v>
@@ -2412,13 +2442,16 @@
         <v>212</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="O13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="102.2">
@@ -2426,25 +2459,25 @@
         <v>137</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>22</v>
@@ -2456,13 +2489,16 @@
         <v>212</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="O14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="15" ht="91">
@@ -2470,25 +2506,25 @@
         <v>148</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
@@ -2500,13 +2536,16 @@
         <v>212</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="O15" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16" ht="35.05">
@@ -2514,25 +2553,25 @@
         <v>159</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>22</v>
@@ -2544,13 +2583,16 @@
         <v>212</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="O16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="17" ht="35.05">
@@ -2558,7 +2600,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>347</v>
@@ -2567,16 +2609,16 @@
         <v>348</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>349</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>22</v>
@@ -2591,10 +2633,13 @@
         <v>350</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
+      </c>
+      <c r="O17" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="18" ht="23.85">
@@ -2640,6 +2685,9 @@
       <c r="N18" s="7" t="s">
         <v>360</v>
       </c>
+      <c r="O18" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="19" ht="12.75">
       <c r="A19" s="1" t="s">
@@ -2676,13 +2724,16 @@
         <v>212</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
+      </c>
+      <c r="O19" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="20" ht="12.75">
@@ -2720,13 +2771,16 @@
         <v>212</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
+      </c>
+      <c r="O20" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="21" ht="22.35">
@@ -2734,34 +2788,34 @@
         <v>202</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>375</v>
@@ -2770,7 +2824,10 @@
         <v>376</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>346</v>
+        <v>216</v>
+      </c>
+      <c r="O21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="1048576" ht="12.8"/>
